--- a/Input/FidelityUnited/rateSheet1.xlsx
+++ b/Input/FidelityUnited/rateSheet1.xlsx
@@ -1228,7 +1228,7 @@
     <t xml:space="preserve">RN3 Plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Nextcare RN3</t>
+    <t xml:space="preserve">Nextcare RN3 (OP restricted to clinics only)</t>
   </si>
   <si>
     <t xml:space="preserve">751.531654186521</t>
@@ -1454,7 +1454,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1476,6 +1476,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1520,7 +1526,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1535,6 +1541,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1555,13 +1565,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J541"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="B453" activeCellId="0" sqref="B453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1608,7 +1618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1640,7 +1650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1672,7 +1682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1704,7 +1714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1736,7 +1746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1768,7 +1778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1800,7 +1810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1832,7 +1842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1864,7 +1874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1896,7 +1906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1928,7 +1938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1960,7 +1970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1992,7 +2002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -2024,7 +2034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -2056,7 +2066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -2088,7 +2098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -2120,7 +2130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -2152,7 +2162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -2184,7 +2194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -2216,7 +2226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -2248,7 +2258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -2280,7 +2290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2312,7 +2322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -2344,7 +2354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -2376,7 +2386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -2408,7 +2418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2440,7 +2450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -2472,7 +2482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -2504,7 +2514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -2536,7 +2546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -2568,7 +2578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -2600,7 +2610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2632,7 +2642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2664,7 +2674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -2696,7 +2706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -2728,7 +2738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -2760,7 +2770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -2792,7 +2802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -2824,7 +2834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -2856,7 +2866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -2888,7 +2898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -2920,7 +2930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -2952,7 +2962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -2984,7 +2994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -3016,7 +3026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -3048,7 +3058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -3080,7 +3090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -3112,7 +3122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -3144,7 +3154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -3176,7 +3186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -3208,7 +3218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -3240,7 +3250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -3272,7 +3282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -3304,7 +3314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -3336,7 +3346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -3368,7 +3378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -3400,7 +3410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -3432,7 +3442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -3464,7 +3474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -3496,7 +3506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -3528,7 +3538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -3560,7 +3570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -3592,7 +3602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -3624,7 +3634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -3656,7 +3666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -3688,7 +3698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -3720,7 +3730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -3752,7 +3762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -3784,7 +3794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -3816,7 +3826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -3848,7 +3858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -3880,7 +3890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -3912,7 +3922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -3944,7 +3954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -3976,7 +3986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -4008,7 +4018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -4040,7 +4050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -4072,7 +4082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
@@ -4104,7 +4114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -4136,7 +4146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
@@ -4168,7 +4178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
@@ -4200,7 +4210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -4232,7 +4242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -4264,7 +4274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
@@ -4296,7 +4306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
@@ -4328,7 +4338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -4360,7 +4370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
@@ -4392,7 +4402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -4424,7 +4434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -4456,7 +4466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
@@ -4488,7 +4498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>95</v>
       </c>
@@ -4520,7 +4530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>95</v>
       </c>
@@ -4552,7 +4562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
@@ -4584,7 +4594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
@@ -4616,7 +4626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -4648,7 +4658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
@@ -4680,7 +4690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>95</v>
       </c>
@@ -4712,7 +4722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>95</v>
       </c>
@@ -4744,7 +4754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>95</v>
       </c>
@@ -4776,7 +4786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>95</v>
       </c>
@@ -4808,7 +4818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>95</v>
       </c>
@@ -4840,7 +4850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>95</v>
       </c>
@@ -4872,7 +4882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>95</v>
       </c>
@@ -4904,7 +4914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>95</v>
       </c>
@@ -4936,7 +4946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>95</v>
       </c>
@@ -4968,7 +4978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>95</v>
       </c>
@@ -5000,7 +5010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>95</v>
       </c>
@@ -5032,7 +5042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>95</v>
       </c>
@@ -5064,7 +5074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>95</v>
       </c>
@@ -5096,7 +5106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>95</v>
       </c>
@@ -5128,7 +5138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>95</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>95</v>
       </c>
@@ -5192,7 +5202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>95</v>
       </c>
@@ -5224,7 +5234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>95</v>
       </c>
@@ -5256,7 +5266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>95</v>
       </c>
@@ -5288,7 +5298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>95</v>
       </c>
@@ -5320,7 +5330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>95</v>
       </c>
@@ -5352,7 +5362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>95</v>
       </c>
@@ -5384,7 +5394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>95</v>
       </c>
@@ -5416,7 +5426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>95</v>
       </c>
@@ -5448,7 +5458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>95</v>
       </c>
@@ -5480,7 +5490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>95</v>
       </c>
@@ -5512,7 +5522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>95</v>
       </c>
@@ -5544,7 +5554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>95</v>
       </c>
@@ -5576,7 +5586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>95</v>
       </c>
@@ -5608,7 +5618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>95</v>
       </c>
@@ -5640,7 +5650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>95</v>
       </c>
@@ -5672,7 +5682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>95</v>
       </c>
@@ -5704,7 +5714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
         <v>95</v>
       </c>
@@ -5736,7 +5746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>95</v>
       </c>
@@ -5768,7 +5778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
         <v>95</v>
       </c>
@@ -5800,7 +5810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>95</v>
       </c>
@@ -5832,7 +5842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>95</v>
       </c>
@@ -5864,7 +5874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>95</v>
       </c>
@@ -5896,7 +5906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>95</v>
       </c>
@@ -5928,7 +5938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>95</v>
       </c>
@@ -5960,7 +5970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>95</v>
       </c>
@@ -5992,7 +6002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>95</v>
       </c>
@@ -6024,7 +6034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>95</v>
       </c>
@@ -6056,7 +6066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>95</v>
       </c>
@@ -6088,7 +6098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
         <v>95</v>
       </c>
@@ -6120,7 +6130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
         <v>95</v>
       </c>
@@ -6152,7 +6162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
         <v>95</v>
       </c>
@@ -6184,7 +6194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
         <v>95</v>
       </c>
@@ -6216,7 +6226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
         <v>95</v>
       </c>
@@ -6248,7 +6258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
         <v>95</v>
       </c>
@@ -6280,7 +6290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
         <v>95</v>
       </c>
@@ -6312,7 +6322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
         <v>95</v>
       </c>
@@ -6344,7 +6354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
         <v>95</v>
       </c>
@@ -6376,7 +6386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
         <v>95</v>
       </c>
@@ -6408,7 +6418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
         <v>95</v>
       </c>
@@ -6440,7 +6450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
         <v>95</v>
       </c>
@@ -6472,7 +6482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
         <v>95</v>
       </c>
@@ -6504,7 +6514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
         <v>95</v>
       </c>
@@ -6536,7 +6546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
         <v>95</v>
       </c>
@@ -6568,7 +6578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
         <v>95</v>
       </c>
@@ -6600,7 +6610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
         <v>95</v>
       </c>
@@ -6632,7 +6642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
         <v>95</v>
       </c>
@@ -6664,7 +6674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
         <v>95</v>
       </c>
@@ -6696,7 +6706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
         <v>95</v>
       </c>
@@ -6728,7 +6738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
         <v>95</v>
       </c>
@@ -6760,7 +6770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
         <v>95</v>
       </c>
@@ -6792,7 +6802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
         <v>95</v>
       </c>
@@ -6824,7 +6834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
         <v>95</v>
       </c>
@@ -6856,7 +6866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
         <v>95</v>
       </c>
@@ -6888,7 +6898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
         <v>95</v>
       </c>
@@ -6920,7 +6930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>95</v>
       </c>
@@ -6952,7 +6962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
         <v>95</v>
       </c>
@@ -6984,7 +6994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
         <v>95</v>
       </c>
@@ -7016,7 +7026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
         <v>95</v>
       </c>
@@ -7048,7 +7058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
         <v>95</v>
       </c>
@@ -7080,7 +7090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
         <v>95</v>
       </c>
@@ -7112,7 +7122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
         <v>95</v>
       </c>
@@ -7144,7 +7154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
         <v>95</v>
       </c>
@@ -7176,7 +7186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
         <v>95</v>
       </c>
@@ -7208,7 +7218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
         <v>95</v>
       </c>
@@ -7240,7 +7250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
         <v>95</v>
       </c>
@@ -7272,7 +7282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
         <v>95</v>
       </c>
@@ -7304,7 +7314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
         <v>95</v>
       </c>
@@ -7336,7 +7346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
         <v>95</v>
       </c>
@@ -7368,7 +7378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
         <v>95</v>
       </c>
@@ -7400,7 +7410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
         <v>173</v>
       </c>
@@ -7432,7 +7442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
         <v>173</v>
       </c>
@@ -7464,7 +7474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
         <v>173</v>
       </c>
@@ -7496,7 +7506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
         <v>173</v>
       </c>
@@ -7528,7 +7538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
         <v>173</v>
       </c>
@@ -7560,7 +7570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
         <v>173</v>
       </c>
@@ -7592,7 +7602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
         <v>173</v>
       </c>
@@ -7624,7 +7634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
         <v>173</v>
       </c>
@@ -7656,7 +7666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>173</v>
       </c>
@@ -7688,7 +7698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>173</v>
       </c>
@@ -7720,7 +7730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>173</v>
       </c>
@@ -7752,7 +7762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
         <v>173</v>
       </c>
@@ -7784,7 +7794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
         <v>173</v>
       </c>
@@ -7816,7 +7826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
         <v>173</v>
       </c>
@@ -7848,7 +7858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
         <v>173</v>
       </c>
@@ -7880,7 +7890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
         <v>173</v>
       </c>
@@ -7912,7 +7922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
         <v>173</v>
       </c>
@@ -7944,7 +7954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
         <v>173</v>
       </c>
@@ -7976,7 +7986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
         <v>173</v>
       </c>
@@ -8008,7 +8018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
         <v>173</v>
       </c>
@@ -8040,7 +8050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
         <v>173</v>
       </c>
@@ -8072,7 +8082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
         <v>173</v>
       </c>
@@ -8104,7 +8114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
         <v>173</v>
       </c>
@@ -8136,7 +8146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
         <v>173</v>
       </c>
@@ -8168,7 +8178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
         <v>173</v>
       </c>
@@ -8200,7 +8210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
         <v>173</v>
       </c>
@@ -8232,7 +8242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>173</v>
       </c>
@@ -8264,7 +8274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
         <v>173</v>
       </c>
@@ -8296,7 +8306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
         <v>173</v>
       </c>
@@ -8328,7 +8338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
         <v>173</v>
       </c>
@@ -8360,7 +8370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
         <v>173</v>
       </c>
@@ -8392,7 +8402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
         <v>173</v>
       </c>
@@ -8424,7 +8434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
         <v>173</v>
       </c>
@@ -8456,7 +8466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
         <v>173</v>
       </c>
@@ -8488,7 +8498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
         <v>173</v>
       </c>
@@ -8520,7 +8530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
         <v>173</v>
       </c>
@@ -8552,7 +8562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>173</v>
       </c>
@@ -8584,7 +8594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
         <v>173</v>
       </c>
@@ -8616,7 +8626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>173</v>
       </c>
@@ -8648,7 +8658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="s">
         <v>173</v>
       </c>
@@ -8680,7 +8690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="s">
         <v>173</v>
       </c>
@@ -8712,7 +8722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="s">
         <v>173</v>
       </c>
@@ -8744,7 +8754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="s">
         <v>173</v>
       </c>
@@ -8776,7 +8786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="s">
         <v>173</v>
       </c>
@@ -8808,7 +8818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
         <v>173</v>
       </c>
@@ -8840,7 +8850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
         <v>173</v>
       </c>
@@ -8872,7 +8882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="s">
         <v>173</v>
       </c>
@@ -8904,7 +8914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="s">
         <v>173</v>
       </c>
@@ -8936,7 +8946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="s">
         <v>173</v>
       </c>
@@ -8968,7 +8978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="s">
         <v>173</v>
       </c>
@@ -9000,7 +9010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="s">
         <v>173</v>
       </c>
@@ -9032,7 +9042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="s">
         <v>173</v>
       </c>
@@ -9064,7 +9074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="s">
         <v>173</v>
       </c>
@@ -9096,7 +9106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="s">
         <v>173</v>
       </c>
@@ -9128,7 +9138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>173</v>
       </c>
@@ -9160,7 +9170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>173</v>
       </c>
@@ -9192,7 +9202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>173</v>
       </c>
@@ -9224,7 +9234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
         <v>173</v>
       </c>
@@ -9256,7 +9266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
         <v>173</v>
       </c>
@@ -9288,7 +9298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
         <v>173</v>
       </c>
@@ -9320,7 +9330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
         <v>173</v>
       </c>
@@ -9352,7 +9362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
         <v>173</v>
       </c>
@@ -9384,7 +9394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
         <v>173</v>
       </c>
@@ -9416,7 +9426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
         <v>173</v>
       </c>
@@ -9448,7 +9458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
         <v>173</v>
       </c>
@@ -9480,7 +9490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
         <v>173</v>
       </c>
@@ -9512,7 +9522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
         <v>173</v>
       </c>
@@ -9544,7 +9554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
         <v>173</v>
       </c>
@@ -9576,7 +9586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
         <v>173</v>
       </c>
@@ -9608,7 +9618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
         <v>173</v>
       </c>
@@ -9640,7 +9650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
         <v>173</v>
       </c>
@@ -9672,7 +9682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
         <v>173</v>
       </c>
@@ -9704,7 +9714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
         <v>173</v>
       </c>
@@ -9736,7 +9746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
         <v>173</v>
       </c>
@@ -9768,7 +9778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
         <v>173</v>
       </c>
@@ -9800,7 +9810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
         <v>173</v>
       </c>
@@ -9832,7 +9842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
         <v>173</v>
       </c>
@@ -9864,7 +9874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
         <v>173</v>
       </c>
@@ -9896,7 +9906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
         <v>173</v>
       </c>
@@ -9928,7 +9938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
         <v>173</v>
       </c>
@@ -9960,7 +9970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
         <v>173</v>
       </c>
@@ -9992,7 +10002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
         <v>173</v>
       </c>
@@ -10024,7 +10034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
         <v>173</v>
       </c>
@@ -10056,7 +10066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
         <v>173</v>
       </c>
@@ -10088,7 +10098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
         <v>173</v>
       </c>
@@ -10120,7 +10130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
         <v>173</v>
       </c>
@@ -10152,7 +10162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
         <v>173</v>
       </c>
@@ -10184,7 +10194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
         <v>173</v>
       </c>
@@ -10216,7 +10226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
         <v>173</v>
       </c>
@@ -10248,7 +10258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
         <v>249</v>
       </c>
@@ -10280,7 +10290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
         <v>249</v>
       </c>
@@ -10312,7 +10322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
         <v>249</v>
       </c>
@@ -10344,7 +10354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
         <v>249</v>
       </c>
@@ -10376,7 +10386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
         <v>249</v>
       </c>
@@ -10408,7 +10418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
         <v>249</v>
       </c>
@@ -10440,7 +10450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
         <v>249</v>
       </c>
@@ -10472,7 +10482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
         <v>249</v>
       </c>
@@ -10504,7 +10514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
         <v>249</v>
       </c>
@@ -10536,7 +10546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
         <v>249</v>
       </c>
@@ -10568,7 +10578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
         <v>249</v>
       </c>
@@ -10600,7 +10610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
         <v>249</v>
       </c>
@@ -10632,7 +10642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
         <v>249</v>
       </c>
@@ -10664,7 +10674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
         <v>249</v>
       </c>
@@ -10696,7 +10706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
         <v>249</v>
       </c>
@@ -10728,7 +10738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
         <v>249</v>
       </c>
@@ -10760,7 +10770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
         <v>249</v>
       </c>
@@ -10792,7 +10802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
         <v>249</v>
       </c>
@@ -10824,7 +10834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
         <v>249</v>
       </c>
@@ -10856,7 +10866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
         <v>249</v>
       </c>
@@ -10888,7 +10898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
         <v>249</v>
       </c>
@@ -10920,7 +10930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
         <v>249</v>
       </c>
@@ -10952,7 +10962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
         <v>249</v>
       </c>
@@ -10984,7 +10994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
         <v>249</v>
       </c>
@@ -11016,7 +11026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
         <v>249</v>
       </c>
@@ -11048,7 +11058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
         <v>249</v>
       </c>
@@ -11080,7 +11090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
         <v>249</v>
       </c>
@@ -11112,7 +11122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
         <v>249</v>
       </c>
@@ -11144,7 +11154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
         <v>249</v>
       </c>
@@ -11176,7 +11186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
         <v>249</v>
       </c>
@@ -11208,7 +11218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
         <v>249</v>
       </c>
@@ -11240,7 +11250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
         <v>249</v>
       </c>
@@ -11272,7 +11282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
         <v>249</v>
       </c>
@@ -11304,7 +11314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
         <v>249</v>
       </c>
@@ -11336,7 +11346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
         <v>249</v>
       </c>
@@ -11368,7 +11378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
         <v>249</v>
       </c>
@@ -11400,7 +11410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
         <v>249</v>
       </c>
@@ -11432,7 +11442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
         <v>249</v>
       </c>
@@ -11464,7 +11474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
         <v>249</v>
       </c>
@@ -11496,7 +11506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
         <v>249</v>
       </c>
@@ -11528,7 +11538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
         <v>249</v>
       </c>
@@ -11560,7 +11570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
         <v>249</v>
       </c>
@@ -11592,7 +11602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
         <v>249</v>
       </c>
@@ -11624,7 +11634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
         <v>249</v>
       </c>
@@ -11656,7 +11666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
         <v>249</v>
       </c>
@@ -11688,7 +11698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
         <v>249</v>
       </c>
@@ -11720,7 +11730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
         <v>249</v>
       </c>
@@ -11752,7 +11762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
         <v>249</v>
       </c>
@@ -11784,7 +11794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
         <v>249</v>
       </c>
@@ -11816,7 +11826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
         <v>249</v>
       </c>
@@ -11848,7 +11858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
         <v>249</v>
       </c>
@@ -11880,7 +11890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
         <v>249</v>
       </c>
@@ -11912,7 +11922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
         <v>249</v>
       </c>
@@ -11944,7 +11954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
         <v>249</v>
       </c>
@@ -11976,7 +11986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
         <v>249</v>
       </c>
@@ -12008,7 +12018,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
         <v>249</v>
       </c>
@@ -12040,7 +12050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
         <v>249</v>
       </c>
@@ -12072,7 +12082,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
         <v>249</v>
       </c>
@@ -12104,7 +12114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
         <v>249</v>
       </c>
@@ -12136,7 +12146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
         <v>249</v>
       </c>
@@ -12168,7 +12178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
         <v>249</v>
       </c>
@@ -12200,7 +12210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
         <v>249</v>
       </c>
@@ -12232,7 +12242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
         <v>249</v>
       </c>
@@ -12264,7 +12274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
         <v>249</v>
       </c>
@@ -12296,7 +12306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
         <v>249</v>
       </c>
@@ -12328,7 +12338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
         <v>249</v>
       </c>
@@ -12360,7 +12370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
         <v>249</v>
       </c>
@@ -12392,7 +12402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
         <v>249</v>
       </c>
@@ -12424,7 +12434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
         <v>249</v>
       </c>
@@ -12456,7 +12466,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
         <v>249</v>
       </c>
@@ -12488,7 +12498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
         <v>249</v>
       </c>
@@ -12520,7 +12530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
         <v>249</v>
       </c>
@@ -12552,7 +12562,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
         <v>249</v>
       </c>
@@ -12584,7 +12594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
         <v>249</v>
       </c>
@@ -12616,7 +12626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
         <v>249</v>
       </c>
@@ -12648,7 +12658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
         <v>249</v>
       </c>
@@ -12680,7 +12690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
         <v>249</v>
       </c>
@@ -12712,7 +12722,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
         <v>249</v>
       </c>
@@ -12744,7 +12754,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
         <v>249</v>
       </c>
@@ -12776,7 +12786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
         <v>249</v>
       </c>
@@ -12808,7 +12818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
         <v>249</v>
       </c>
@@ -12840,7 +12850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
         <v>249</v>
       </c>
@@ -12872,7 +12882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
         <v>249</v>
       </c>
@@ -12904,7 +12914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
         <v>249</v>
       </c>
@@ -12936,7 +12946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
         <v>249</v>
       </c>
@@ -12968,7 +12978,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
         <v>249</v>
       </c>
@@ -13000,7 +13010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
         <v>249</v>
       </c>
@@ -13032,7 +13042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
         <v>249</v>
       </c>
@@ -13064,7 +13074,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
         <v>249</v>
       </c>
@@ -13096,7 +13106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
         <v>249</v>
       </c>
@@ -13128,7 +13138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
         <v>325</v>
       </c>
@@ -13160,7 +13170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
         <v>325</v>
       </c>
@@ -13192,7 +13202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
         <v>325</v>
       </c>
@@ -13224,7 +13234,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
         <v>325</v>
       </c>
@@ -13256,7 +13266,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
         <v>325</v>
       </c>
@@ -13288,7 +13298,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
         <v>325</v>
       </c>
@@ -13320,7 +13330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
         <v>325</v>
       </c>
@@ -13352,7 +13362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
         <v>325</v>
       </c>
@@ -13384,7 +13394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
         <v>325</v>
       </c>
@@ -13416,7 +13426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
         <v>325</v>
       </c>
@@ -13448,7 +13458,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
         <v>325</v>
       </c>
@@ -13480,7 +13490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
         <v>325</v>
       </c>
@@ -13512,7 +13522,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
         <v>325</v>
       </c>
@@ -13544,7 +13554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
         <v>325</v>
       </c>
@@ -13576,7 +13586,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
         <v>325</v>
       </c>
@@ -13608,7 +13618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
         <v>325</v>
       </c>
@@ -13640,7 +13650,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
         <v>325</v>
       </c>
@@ -13672,7 +13682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
         <v>325</v>
       </c>
@@ -13704,7 +13714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
         <v>325</v>
       </c>
@@ -13736,7 +13746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
         <v>325</v>
       </c>
@@ -13768,7 +13778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
         <v>325</v>
       </c>
@@ -13800,7 +13810,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
         <v>325</v>
       </c>
@@ -13832,7 +13842,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
         <v>325</v>
       </c>
@@ -13864,7 +13874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
         <v>325</v>
       </c>
@@ -13896,7 +13906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
         <v>325</v>
       </c>
@@ -13928,7 +13938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
         <v>325</v>
       </c>
@@ -13960,7 +13970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
         <v>325</v>
       </c>
@@ -13992,7 +14002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
         <v>325</v>
       </c>
@@ -14024,7 +14034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="s">
         <v>325</v>
       </c>
@@ -14056,7 +14066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
         <v>325</v>
       </c>
@@ -14088,7 +14098,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
         <v>325</v>
       </c>
@@ -14120,7 +14130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
         <v>325</v>
       </c>
@@ -14152,7 +14162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
         <v>325</v>
       </c>
@@ -14184,7 +14194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="s">
         <v>325</v>
       </c>
@@ -14216,7 +14226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
         <v>325</v>
       </c>
@@ -14248,7 +14258,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
         <v>325</v>
       </c>
@@ -14280,7 +14290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="s">
         <v>325</v>
       </c>
@@ -14312,7 +14322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="s">
         <v>325</v>
       </c>
@@ -14344,7 +14354,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="s">
         <v>325</v>
       </c>
@@ -14376,7 +14386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="s">
         <v>325</v>
       </c>
@@ -14408,7 +14418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="s">
         <v>325</v>
       </c>
@@ -14440,7 +14450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="s">
         <v>325</v>
       </c>
@@ -14472,7 +14482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
         <v>325</v>
       </c>
@@ -14504,7 +14514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
         <v>325</v>
       </c>
@@ -14536,7 +14546,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
         <v>325</v>
       </c>
@@ -14568,7 +14578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="s">
         <v>325</v>
       </c>
@@ -14600,7 +14610,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="s">
         <v>325</v>
       </c>
@@ -14632,7 +14642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="s">
         <v>325</v>
       </c>
@@ -14664,7 +14674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="s">
         <v>325</v>
       </c>
@@ -14696,7 +14706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
         <v>325</v>
       </c>
@@ -14728,7 +14738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
         <v>325</v>
       </c>
@@ -14760,7 +14770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
         <v>325</v>
       </c>
@@ -14792,7 +14802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
         <v>325</v>
       </c>
@@ -14824,7 +14834,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
         <v>325</v>
       </c>
@@ -14856,7 +14866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
         <v>325</v>
       </c>
@@ -14888,7 +14898,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
         <v>325</v>
       </c>
@@ -14920,7 +14930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
         <v>325</v>
       </c>
@@ -14952,7 +14962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
         <v>325</v>
       </c>
@@ -14984,7 +14994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
         <v>325</v>
       </c>
@@ -15016,7 +15026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
         <v>325</v>
       </c>
@@ -15048,7 +15058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
         <v>325</v>
       </c>
@@ -15080,7 +15090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="423" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="423" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
         <v>325</v>
       </c>
@@ -15112,7 +15122,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="424" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
         <v>325</v>
       </c>
@@ -15144,7 +15154,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="425" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="425" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
         <v>325</v>
       </c>
@@ -15176,7 +15186,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="426" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="426" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
         <v>325</v>
       </c>
@@ -15208,7 +15218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="427" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
         <v>325</v>
       </c>
@@ -15240,7 +15250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
         <v>325</v>
       </c>
@@ -15272,7 +15282,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
         <v>325</v>
       </c>
@@ -15304,7 +15314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
         <v>325</v>
       </c>
@@ -15336,7 +15346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="431" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
         <v>325</v>
       </c>
@@ -15368,7 +15378,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
         <v>325</v>
       </c>
@@ -15400,7 +15410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
         <v>325</v>
       </c>
@@ -15432,7 +15442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
         <v>325</v>
       </c>
@@ -15464,7 +15474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
         <v>325</v>
       </c>
@@ -15496,7 +15506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="436" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
         <v>325</v>
       </c>
@@ -15528,7 +15538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
         <v>325</v>
       </c>
@@ -15560,7 +15570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="s">
         <v>325</v>
       </c>
@@ -15592,7 +15602,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="s">
         <v>325</v>
       </c>
@@ -15624,7 +15634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
         <v>325</v>
       </c>
@@ -15656,7 +15666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="s">
         <v>325</v>
       </c>
@@ -15688,7 +15698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="s">
         <v>325</v>
       </c>
@@ -15720,7 +15730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
         <v>325</v>
       </c>
@@ -15752,7 +15762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
         <v>325</v>
       </c>
@@ -15784,7 +15794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
         <v>325</v>
       </c>
@@ -15816,7 +15826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="s">
         <v>325</v>
       </c>
@@ -15848,7 +15858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="30" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
         <v>325</v>
       </c>
@@ -15880,7 +15890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
         <v>325</v>
       </c>
@@ -15912,7 +15922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
         <v>325</v>
       </c>
@@ -15944,7 +15954,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
         <v>325</v>
       </c>
@@ -15976,7 +15986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="44.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
         <v>325</v>
       </c>
@@ -16008,11 +16018,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="452" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="452" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B452" s="1" t="s">
+      <c r="B452" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C452" s="1" t="s">
@@ -16040,11 +16050,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B453" s="1" t="s">
+      <c r="B453" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C453" s="1" t="s">
@@ -16072,11 +16082,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B454" s="1" t="s">
+      <c r="B454" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C454" s="1" t="s">
@@ -16104,11 +16114,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B455" s="1" t="s">
+      <c r="B455" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C455" s="1" t="s">
@@ -16136,11 +16146,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B456" s="1" t="s">
+      <c r="B456" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C456" s="1" t="s">
@@ -16168,11 +16178,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B457" s="1" t="s">
+      <c r="B457" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C457" s="1" t="s">
@@ -16200,11 +16210,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="B458" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -16232,11 +16242,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B459" s="1" t="s">
+      <c r="B459" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C459" s="1" t="s">
@@ -16264,11 +16274,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B460" s="1" t="s">
+      <c r="B460" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C460" s="1" t="s">
@@ -16296,11 +16306,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B461" s="1" t="s">
+      <c r="B461" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C461" s="1" t="s">
@@ -16328,11 +16338,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B462" s="1" t="s">
+      <c r="B462" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C462" s="1" t="s">
@@ -16360,11 +16370,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B463" s="1" t="s">
+      <c r="B463" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C463" s="1" t="s">
@@ -16392,11 +16402,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B464" s="1" t="s">
+      <c r="B464" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C464" s="1" t="s">
@@ -16424,11 +16434,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B465" s="1" t="s">
+      <c r="B465" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C465" s="1" t="s">
@@ -16456,11 +16466,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="B466" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C466" s="1" t="s">
@@ -16488,11 +16498,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B467" s="1" t="s">
+      <c r="B467" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C467" s="1" t="s">
@@ -16520,11 +16530,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="B468" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C468" s="1" t="s">
@@ -16552,11 +16562,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="B469" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C469" s="1" t="s">
@@ -16584,11 +16594,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B470" s="1" t="s">
+      <c r="B470" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C470" s="1" t="s">
@@ -16616,11 +16626,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B471" s="1" t="s">
+      <c r="B471" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C471" s="1" t="s">
@@ -16648,11 +16658,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B472" s="1" t="s">
+      <c r="B472" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C472" s="1" t="s">
@@ -16680,11 +16690,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B473" s="1" t="s">
+      <c r="B473" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C473" s="1" t="s">
@@ -16712,11 +16722,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="B474" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C474" s="1" t="s">
@@ -16744,11 +16754,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="B475" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C475" s="1" t="s">
@@ -16776,11 +16786,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B476" s="1" t="s">
+      <c r="B476" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C476" s="1" t="s">
@@ -16808,11 +16818,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B477" s="1" t="s">
+      <c r="B477" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C477" s="1" t="s">
@@ -16840,11 +16850,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B478" s="1" t="s">
+      <c r="B478" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C478" s="1" t="s">
@@ -16872,11 +16882,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="B479" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C479" s="1" t="s">
@@ -16904,11 +16914,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="B480" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C480" s="1" t="s">
@@ -16936,11 +16946,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B481" s="1" t="s">
+      <c r="B481" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C481" s="1" t="s">
@@ -16968,11 +16978,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B482" s="1" t="s">
+      <c r="B482" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C482" s="1" t="s">
@@ -17000,11 +17010,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="483" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B483" s="1" t="s">
+      <c r="B483" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C483" s="1" t="s">
@@ -17032,11 +17042,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B484" s="1" t="s">
+      <c r="B484" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C484" s="1" t="s">
@@ -17064,11 +17074,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B485" s="1" t="s">
+      <c r="B485" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C485" s="1" t="s">
@@ -17096,11 +17106,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="B486" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C486" s="1" t="s">
@@ -17128,11 +17138,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B487" s="1" t="s">
+      <c r="B487" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -17160,11 +17170,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B488" s="1" t="s">
+      <c r="B488" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C488" s="1" t="s">
@@ -17192,11 +17202,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B489" s="1" t="s">
+      <c r="B489" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C489" s="1" t="s">
@@ -17224,11 +17234,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B490" s="1" t="s">
+      <c r="B490" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C490" s="1" t="s">
@@ -17256,11 +17266,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B491" s="1" t="s">
+      <c r="B491" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C491" s="1" t="s">
@@ -17288,11 +17298,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="B492" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C492" s="1" t="s">
@@ -17320,11 +17330,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B493" s="1" t="s">
+      <c r="B493" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C493" s="1" t="s">
@@ -17352,11 +17362,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B494" s="1" t="s">
+      <c r="B494" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C494" s="1" t="s">
@@ -17384,11 +17394,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B495" s="1" t="s">
+      <c r="B495" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C495" s="1" t="s">
@@ -17416,11 +17426,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B496" s="1" t="s">
+      <c r="B496" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C496" s="1" t="s">
@@ -17448,11 +17458,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B497" s="1" t="s">
+      <c r="B497" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C497" s="1" t="s">
@@ -17480,11 +17490,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B498" s="1" t="s">
+      <c r="B498" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -17512,11 +17522,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B499" s="1" t="s">
+      <c r="B499" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C499" s="1" t="s">
@@ -17544,11 +17554,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B500" s="1" t="s">
+      <c r="B500" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C500" s="1" t="s">
@@ -17576,11 +17586,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B501" s="1" t="s">
+      <c r="B501" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C501" s="1" t="s">
@@ -17608,11 +17618,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B502" s="1" t="s">
+      <c r="B502" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C502" s="1" t="s">
@@ -17640,11 +17650,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B503" s="1" t="s">
+      <c r="B503" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C503" s="1" t="s">
@@ -17672,11 +17682,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="B504" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C504" s="1" t="s">
@@ -17704,11 +17714,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B505" s="1" t="s">
+      <c r="B505" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C505" s="1" t="s">
@@ -17736,11 +17746,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B506" s="1" t="s">
+      <c r="B506" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C506" s="1" t="s">
@@ -17768,11 +17778,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="B507" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C507" s="1" t="s">
@@ -17800,11 +17810,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="B508" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C508" s="1" t="s">
@@ -17832,11 +17842,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B509" s="1" t="s">
+      <c r="B509" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C509" s="1" t="s">
@@ -17864,11 +17874,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B510" s="1" t="s">
+      <c r="B510" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C510" s="1" t="s">
@@ -17896,11 +17906,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="B511" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C511" s="1" t="s">
@@ -17928,11 +17938,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B512" s="1" t="s">
+      <c r="B512" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C512" s="1" t="s">
@@ -17960,11 +17970,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B513" s="1" t="s">
+      <c r="B513" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C513" s="1" t="s">
@@ -17992,11 +18002,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B514" s="1" t="s">
+      <c r="B514" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C514" s="1" t="s">
@@ -18024,11 +18034,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B515" s="1" t="s">
+      <c r="B515" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C515" s="1" t="s">
@@ -18056,11 +18066,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="B516" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C516" s="1" t="s">
@@ -18088,11 +18098,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B517" s="1" t="s">
+      <c r="B517" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C517" s="1" t="s">
@@ -18120,11 +18130,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B518" s="1" t="s">
+      <c r="B518" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C518" s="1" t="s">
@@ -18152,11 +18162,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B519" s="1" t="s">
+      <c r="B519" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C519" s="1" t="s">
@@ -18184,11 +18194,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="520" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="520" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="B520" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C520" s="1" t="s">
@@ -18216,11 +18226,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="521" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="521" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B521" s="1" t="s">
+      <c r="B521" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C521" s="1" t="s">
@@ -18248,11 +18258,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B522" s="1" t="s">
+      <c r="B522" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C522" s="1" t="s">
@@ -18280,11 +18290,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B523" s="1" t="s">
+      <c r="B523" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C523" s="1" t="s">
@@ -18312,11 +18322,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B524" s="1" t="s">
+      <c r="B524" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C524" s="1" t="s">
@@ -18344,11 +18354,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B525" s="1" t="s">
+      <c r="B525" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C525" s="1" t="s">
@@ -18376,11 +18386,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B526" s="1" t="s">
+      <c r="B526" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C526" s="1" t="s">
@@ -18408,11 +18418,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B527" s="1" t="s">
+      <c r="B527" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C527" s="1" t="s">
@@ -18440,11 +18450,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B528" s="1" t="s">
+      <c r="B528" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C528" s="1" t="s">
@@ -18472,11 +18482,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B529" s="1" t="s">
+      <c r="B529" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C529" s="1" t="s">
@@ -18504,11 +18514,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B530" s="1" t="s">
+      <c r="B530" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C530" s="1" t="s">
@@ -18536,11 +18546,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="B531" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C531" s="1" t="s">
@@ -18568,11 +18578,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B532" s="1" t="s">
+      <c r="B532" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C532" s="1" t="s">
@@ -18600,11 +18610,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B533" s="1" t="s">
+      <c r="B533" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C533" s="1" t="s">
@@ -18632,11 +18642,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B534" s="1" t="s">
+      <c r="B534" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C534" s="1" t="s">
@@ -18664,11 +18674,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B535" s="1" t="s">
+      <c r="B535" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C535" s="1" t="s">
@@ -18696,11 +18706,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B536" s="1" t="s">
+      <c r="B536" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C536" s="1" t="s">
@@ -18728,11 +18738,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B537" s="1" t="s">
+      <c r="B537" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C537" s="1" t="s">
@@ -18760,11 +18770,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="B538" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C538" s="1" t="s">
@@ -18792,11 +18802,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B539" s="1" t="s">
+      <c r="B539" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C539" s="1" t="s">
@@ -18824,11 +18834,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B540" s="1" t="s">
+      <c r="B540" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C540" s="1" t="s">
@@ -18856,11 +18866,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="541" customFormat="false" ht="44.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="541" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B541" s="1" t="s">
+      <c r="B541" s="4" t="s">
         <v>401</v>
       </c>
       <c r="C541" s="1" t="s">
@@ -18889,7 +18899,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H541"/>
+  <autoFilter ref="A1:H541">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="RN3 Plan"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
